--- a/medicine/Premiers secours et secourisme/Agence_nationale_de_Protection_civile/Agence_nationale_de_Protection_civile.xlsx
+++ b/medicine/Premiers secours et secourisme/Agence_nationale_de_Protection_civile/Agence_nationale_de_Protection_civile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Agence nationale de Protection civile (ANPC) anciennement direction de la prévention de la protection civile est un établissement public béninois, dotée de la personnalité morale et de d'autonomie financière dont la  mission principale est de réduction des risques de catastrophes et la gestion des inondations. Elle est placée sous la tutelle du Ministère chargé de l'Intérieur, de la Sécurité Publique[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agence nationale de Protection civile (ANPC) anciennement direction de la prévention de la protection civile est un établissement public béninois, dotée de la personnalité morale et de d'autonomie financière dont la  mission principale est de réduction des risques de catastrophes et la gestion des inondations. Elle est placée sous la tutelle du Ministère chargé de l'Intérieur, de la Sécurité Publique.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Mission</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>l'Agence nationale de Protection civile plusieurs mission dont entre autres:
 prévenir tout risque de catastrophe sur l'ensemble du territoire national ;
